--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3462730.549461775</v>
+        <v>3458426.902190391</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7895435.432243531</v>
+        <v>7895435.43224353</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>49.6939078531857</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>185.2449961814015</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415046</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25.68168827400408</v>
       </c>
       <c r="C3" t="n">
-        <v>35.67399900451444</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>143.0974001792731</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>47.82951707610787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143447</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143447</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="H5" t="n">
-        <v>290.2905114143447</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>31.05856933007535</v>
+        <v>137.0509511719062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.2905114143454</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>34.87039281846275</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>83.34777511980124</v>
+        <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,28 +1056,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340523</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>248.8286402910067</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.35782667306938</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>324.7717375207539</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>19.07626317405128</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.6356856062491</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719971</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>213.5346866527482</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217618</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.41782514684017</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6760079449704</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.7846639981983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>186.4479095884343</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
-        <v>38.19083539427159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
-        <v>33.82351723687706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.7950049175965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>265.5657694879909</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>20.22544352992998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>75.08886905994768</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>142.6584215897771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>133.6059237111945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4030,10 +4030,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318.5562537668779</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="C2" t="n">
-        <v>76.32600311889325</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="D2" t="n">
-        <v>76.32600311889325</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
-        <v>76.32600311889325</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F2" t="n">
-        <v>69.38050236968978</v>
+        <v>151.9249841743781</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132038</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132038</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>40.4188858447036</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192958</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859559</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444239</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566019</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628471</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628471</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628471</v>
+        <v>588.2168933305575</v>
       </c>
       <c r="V2" t="n">
-        <v>803.0167550628471</v>
+        <v>401.100735571566</v>
       </c>
       <c r="W2" t="n">
-        <v>803.0167550628471</v>
+        <v>401.100735571566</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7865044148625</v>
+        <v>401.100735571566</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.5562537668779</v>
+        <v>158.8704849235816</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.1293435552672</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C3" t="n">
-        <v>452.0950011264648</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D3" t="n">
-        <v>303.1605914652135</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
-        <v>303.1605914652135</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>156.6260334920985</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467733</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607136</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153183</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679829</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367434</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640421</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682058</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682058</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682058</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682058</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="V3" t="n">
-        <v>938.1198929682058</v>
+        <v>702.9677847364624</v>
       </c>
       <c r="W3" t="n">
-        <v>695.8896423202211</v>
+        <v>460.7375340884779</v>
       </c>
       <c r="X3" t="n">
-        <v>695.8896423202211</v>
+        <v>252.8860338829451</v>
       </c>
       <c r="Y3" t="n">
-        <v>488.1293435552672</v>
+        <v>45.12573511799116</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.6660686152997</v>
+        <v>633.0404992718665</v>
       </c>
       <c r="C4" t="n">
-        <v>205.6660686152997</v>
+        <v>464.1043163439596</v>
       </c>
       <c r="D4" t="n">
-        <v>205.6660686152997</v>
+        <v>313.9876769316238</v>
       </c>
       <c r="E4" t="n">
-        <v>205.6660686152997</v>
+        <v>166.0745833492307</v>
       </c>
       <c r="F4" t="n">
-        <v>205.6660686152997</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068302</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132038</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030905</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916894</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456591</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660191</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660191</v>
+        <v>814.6889641021062</v>
       </c>
       <c r="V4" t="n">
-        <v>717.0015419180345</v>
+        <v>814.6889641021062</v>
       </c>
       <c r="W4" t="n">
-        <v>474.7712912700499</v>
+        <v>814.6889641021062</v>
       </c>
       <c r="X4" t="n">
-        <v>426.4586477588298</v>
+        <v>814.6889641021062</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.6660686152997</v>
+        <v>814.6889641021062</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>915.7623695165159</v>
+        <v>729.5040026409656</v>
       </c>
       <c r="C5" t="n">
-        <v>915.7623695165159</v>
+        <v>436.2812638385966</v>
       </c>
       <c r="D5" t="n">
-        <v>622.5396307141476</v>
+        <v>436.2812638385966</v>
       </c>
       <c r="E5" t="n">
-        <v>622.5396307141476</v>
+        <v>436.2812638385966</v>
       </c>
       <c r="F5" t="n">
-        <v>329.3168919117792</v>
+        <v>429.3357630893931</v>
       </c>
       <c r="G5" t="n">
-        <v>316.4459797155159</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314757</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="J5" t="n">
         <v>59.13673382951902</v>
       </c>
       <c r="K5" t="n">
-        <v>163.700268344494</v>
+        <v>163.7002683444941</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084605</v>
+        <v>330.3223409084617</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162819</v>
+        <v>547.3909387162834</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536989</v>
+        <v>772.5857417537005</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416844</v>
+        <v>971.8955472416865</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171405</v>
+        <v>1107.500854171407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="T5" t="n">
-        <v>947.1346617691173</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="U5" t="n">
-        <v>947.1346617691173</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="V5" t="n">
-        <v>947.1346617691173</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="W5" t="n">
-        <v>947.1346617691173</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="X5" t="n">
-        <v>915.7623695165159</v>
+        <v>1022.726741443335</v>
       </c>
       <c r="Y5" t="n">
-        <v>915.7623695165159</v>
+        <v>729.5040026409656</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.3349096668239</v>
+        <v>295.7969449124153</v>
       </c>
       <c r="C6" t="n">
-        <v>402.8818803856969</v>
+        <v>260.574325903867</v>
       </c>
       <c r="D6" t="n">
-        <v>253.9474707244457</v>
+        <v>260.574325903867</v>
       </c>
       <c r="E6" t="n">
-        <v>253.9474707244457</v>
+        <v>260.574325903867</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4129127513307</v>
+        <v>260.574325903867</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4129127513307</v>
+        <v>123.2273456438288</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920935</v>
+        <v>25.7952243050889</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838817</v>
+        <v>235.7315125838832</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894925</v>
+        <v>393.0537298894942</v>
       </c>
       <c r="M6" t="n">
-        <v>595.998205247804</v>
+        <v>595.9982052478059</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044638</v>
+        <v>818.722661904466</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792094</v>
+        <v>1000.252231792096</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313219</v>
+        <v>1126.612649313222</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657379</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="V6" t="n">
-        <v>1161.162045657379</v>
+        <v>926.0099374256388</v>
       </c>
       <c r="W6" t="n">
-        <v>1161.162045657379</v>
+        <v>671.7725806974372</v>
       </c>
       <c r="X6" t="n">
-        <v>953.3105454518459</v>
+        <v>671.7725806974372</v>
       </c>
       <c r="Y6" t="n">
-        <v>745.550246686892</v>
+        <v>464.0122819324833</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.8821565470971</v>
+        <v>649.3573374179415</v>
       </c>
       <c r="C7" t="n">
-        <v>313.8821565470971</v>
+        <v>480.4211544900346</v>
       </c>
       <c r="D7" t="n">
-        <v>313.8821565470971</v>
+        <v>330.3045150776989</v>
       </c>
       <c r="E7" t="n">
-        <v>313.8821565470971</v>
+        <v>182.3914214953057</v>
       </c>
       <c r="F7" t="n">
-        <v>313.8821565470971</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="G7" t="n">
-        <v>145.3544679028074</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="H7" t="n">
-        <v>145.3544679028074</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314757</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314757</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279143</v>
+        <v>133.2846894279144</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993032</v>
+        <v>329.6518852993035</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276978</v>
+        <v>547.0826837276982</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730485</v>
+        <v>764.7780801730489</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967844</v>
+        <v>949.8387182967849</v>
       </c>
       <c r="P7" t="n">
         <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899861</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="R7" t="n">
-        <v>967.6652614208738</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="S7" t="n">
-        <v>967.6652614208738</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="T7" t="n">
-        <v>967.6652614208738</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="U7" t="n">
-        <v>967.6652614208738</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="V7" t="n">
-        <v>716.323200520867</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="W7" t="n">
-        <v>716.323200520867</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="X7" t="n">
-        <v>716.323200520867</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.5306213773368</v>
+        <v>831.0058022481812</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.111199477247</v>
+        <v>1237.219941498974</v>
       </c>
       <c r="C8" t="n">
-        <v>926.0589393552737</v>
+        <v>1237.219941498974</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>878.9542428922239</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>493.1659902939796</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>82.18008550437207</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>70.51573926906501</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477247</v>
+        <v>1237.219941498974</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>846.306131908167</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1358.473132169626</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1358.473132169626</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1069.354794673463</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1069.354794673463</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>779.9376246365028</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>551.9480737384855</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.279733667159</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>593.6115863900017</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>445.6984928076085</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>298.8085453096982</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>131.6124460245781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>131.6124460245781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,28 +5533,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>454.6048385560535</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M18" t="n">
-        <v>3658.217393399322</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1649.809252446351</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1360.39208240939</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.402531511373</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5998,10 +5998,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1399.536196722681</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1171.546645824663</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.7540666811333</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2359.115042518991</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6897,13 +6897,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.4916164683287</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>923.4916164683287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>773.374977055993</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>625.4618834735999</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>478.5719359756895</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>311.3758366905694</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>169.6640055327675</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622266</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343197</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7666,10 +7666,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398594</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2598873597751</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66.78462588923477</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.5141140770251</v>
+        <v>74.51411407702477</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506833</v>
+        <v>54.74236624506821</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.581221505604745</v>
+        <v>128.6722568460148</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460951</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.454437538930662</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.64978773649597</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>210.970912116861</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>43.84801117172537</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>61.35027805667416</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.047316183739</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>30.95754073885394</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
-        <v>252.6994810997139</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.03697526434081</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>20.61870490125324</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>266.297554806661</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.176967258617836</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.05123379926005</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>15.00954930701789</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.604713255</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="O2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.3234221076</v>
+        <v>55881.32342210851</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276257</v>
+        <v>363279.886627625</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353616</v>
+        <v>62744.31078353601</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.5963444042</v>
+        <v>12992.59634440454</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666308</v>
+        <v>88656.33991666285</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431043</v>
+        <v>246054.6603431042</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26429,7 +26429,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26441,13 +26441,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302689</v>
+        <v>65162.40123302694</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214991.3170960265</v>
+        <v>-214991.3170960262</v>
       </c>
       <c r="C6" t="n">
-        <v>392365.252126223</v>
+        <v>392365.2521262224</v>
       </c>
       <c r="D6" t="n">
-        <v>159294.8840741734</v>
+        <v>159294.884074174</v>
       </c>
       <c r="E6" t="n">
-        <v>125005.769117972</v>
+        <v>124658.3898636145</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425175</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425175</v>
+        <v>632143.831488161</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425178</v>
+        <v>632143.8314881611</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.210742518</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="J6" t="n">
-        <v>569746.8999589816</v>
+        <v>569399.5207046245</v>
       </c>
       <c r="K6" t="n">
-        <v>619498.6143981137</v>
+        <v>619151.2351437563</v>
       </c>
       <c r="L6" t="n">
-        <v>543834.8708258545</v>
+        <v>543487.4915714976</v>
       </c>
       <c r="M6" t="n">
-        <v>499883.9170135913</v>
+        <v>499536.5377592339</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.8314881606</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.2107425176</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425178</v>
+        <v>632143.8314881606</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575566</v>
+        <v>636.932942157557</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143447</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949173</v>
+        <v>43.45684181949241</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599825</v>
+        <v>297.1319499599821</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283989</v>
+        <v>50.48256327284079</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856942</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="E4" t="n">
+        <v>532.1234559996097</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.148102746564408e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>239.8079481415045</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50.48256327284101</v>
+      </c>
+      <c r="L4" t="n">
+        <v>350.2943206856935</v>
+      </c>
+      <c r="M4" t="n">
         <v>532.1234559996095</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>239.8079481415052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50.48256327283966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>350.2943206856944</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532.1234559996093</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283989</v>
+        <v>50.48256327284079</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856942</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295028</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>363.2229960927511</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>142.5072622887334</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>129.9231525369643</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145488</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>140.8514953758633</v>
       </c>
       <c r="C3" t="n">
-        <v>137.0344999838013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941484</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>143.1632544788239</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>177.8801383129293</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666219</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273668</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>122.4516916599553</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96121735922719</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157315</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>338.6725313483937</v>
+        <v>232.6801495065628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170823</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>137.838106169853</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15.65628856357314</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370923</v>
+        <v>42.22754232370919</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790375</v>
+        <v>15.09724236790369</v>
       </c>
       <c r="S6" t="n">
         <v>146.2358974242411</v>
@@ -27754,13 +27754,13 @@
         <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340529</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
@@ -27833,13 +27833,13 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>3.309003032821295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>183.3518287159678</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>40.50115425025365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>281.9422893883541</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>21.02677475548842</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.72293255183087</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834396</v>
+        <v>2.560534440834398</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219527</v>
+        <v>26.22307334219529</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026816</v>
+        <v>98.71500403026823</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977686</v>
+        <v>217.3221599977687</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782886</v>
+        <v>325.7095828782888</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719744</v>
+        <v>404.0715387719746</v>
       </c>
       <c r="M5" t="n">
-        <v>449.607443134163</v>
+        <v>449.6074431341634</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141838</v>
+        <v>456.8825616141841</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681367</v>
+        <v>431.4212472681371</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600375</v>
+        <v>368.2080532600378</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976556</v>
+        <v>276.5089135976558</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690638</v>
+        <v>160.8431715690639</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051387</v>
+        <v>58.34817857051391</v>
       </c>
       <c r="T5" t="n">
         <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667517</v>
+        <v>0.2048427552667518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772858</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312207</v>
+        <v>13.23138055312208</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770585</v>
+        <v>47.16909052770588</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888295</v>
+        <v>129.4355896888296</v>
       </c>
       <c r="K6" t="n">
-        <v>221.226038975611</v>
+        <v>221.2260389756111</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916023</v>
+        <v>297.4657103916025</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758683</v>
+        <v>347.1284534758685</v>
       </c>
       <c r="N6" t="n">
-        <v>356.315910726424</v>
+        <v>356.3159107264243</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511413</v>
+        <v>325.9594463511415</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892047</v>
+        <v>261.6111927892049</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316371</v>
+        <v>174.8801542316372</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473939</v>
+        <v>85.06059178473944</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795967</v>
+        <v>25.44727367959672</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479191</v>
+        <v>5.522088432479196</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0901320201166354</v>
+        <v>0.09013202011663547</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611987</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
         <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749504</v>
+        <v>34.54056020749507</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326748</v>
+        <v>81.20372936326754</v>
       </c>
       <c r="K7" t="n">
-        <v>133.442672143829</v>
+        <v>133.4426721438291</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400767</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577499</v>
+        <v>180.04319215775</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645599</v>
+        <v>175.7621674645601</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846835</v>
+        <v>162.3448095846836</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321988</v>
+        <v>138.9140305321989</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579104</v>
+        <v>96.17687426579111</v>
       </c>
       <c r="R7" t="n">
-        <v>51.6437759329717</v>
+        <v>51.64377593297174</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157435</v>
+        <v>20.01640082157436</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705762</v>
+        <v>4.907516111705766</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156301</v>
+        <v>0.06264914185156305</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209182</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121639</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860882993</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.6561007250648</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33274,7 +33274,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33286,7 +33286,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>552.0015769888923</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33970,34 +33970,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>353.3934907042769</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>147.4873481937407</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>205.4003814606427</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472414</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459996945</v>
+        <v>66.2222745999691</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108227</v>
+        <v>36.27625547108241</v>
       </c>
       <c r="K5" t="n">
-        <v>105.619731833308</v>
+        <v>105.6197318333083</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019871</v>
+        <v>168.3051238019874</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068903</v>
+        <v>219.2612099068906</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175929</v>
+        <v>227.4694980175932</v>
       </c>
       <c r="O5" t="n">
-        <v>201.32303584645</v>
+        <v>201.3230358464503</v>
       </c>
       <c r="P5" t="n">
-        <v>136.975057504768</v>
+        <v>136.9750575047682</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320615</v>
+        <v>54.20322372320632</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625717</v>
+        <v>2.597963022162901</v>
       </c>
       <c r="K6" t="n">
-        <v>85.96582150685673</v>
+        <v>212.0568568472669</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117281</v>
+        <v>158.9113306117283</v>
       </c>
       <c r="M6" t="n">
-        <v>204.99441955385</v>
+        <v>204.9944195538502</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430907</v>
+        <v>224.974198643091</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066968</v>
+        <v>183.363201906697</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748745</v>
+        <v>127.6367853748746</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561553</v>
+        <v>34.89838014561568</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179462</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003929</v>
+        <v>198.350702900393</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195905</v>
+        <v>219.6270691195906</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437885</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987231</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970923</v>
+        <v>136.1925897970924</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409666</v>
+        <v>10.01483101409673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839452</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>122.9351598697852</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378049</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496596</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>254.8360547723487</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.8146617507058</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,22 +37156,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>418.027169574562</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,19 +37867,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>219.4190832899467</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>20.64972152707398</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3458426.902190391</v>
+        <v>3460187.432493178</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
-        <v>185.2449961814015</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.68168827400408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.33882601930064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>143.0974001792731</v>
+        <v>125.2314353233041</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143454</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>236.0696336377445</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>290.2905114143454</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>137.0509511719062</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>34.87039281846275</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>143.0614659284061</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337438</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340523</v>
+        <v>12.15545075340509</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.5031819535349</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>42.35782667306938</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>167.4944245867221</v>
       </c>
       <c r="H8" t="n">
-        <v>19.07626317405128</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719971</v>
+        <v>197.4147107719976</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X13" t="n">
-        <v>14.73874327217618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6760079449704</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4479095884343</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.8704849235816</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="C2" t="n">
-        <v>158.8704849235816</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8704849235816</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192955</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605485</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779379</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948972</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628464</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305575</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>588.2168933305575</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="V2" t="n">
-        <v>401.100735571566</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="W2" t="n">
-        <v>401.100735571566</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="X2" t="n">
-        <v>401.100735571566</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.8704849235816</v>
+        <v>474.7712912700493</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132037</v>
+        <v>791.0164555459501</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132037</v>
+        <v>616.5634262648231</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132037</v>
+        <v>467.6290166035718</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132037</v>
+        <v>308.3915615981163</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132037</v>
+        <v>161.8570036250013</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132037</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>85.30141548166254</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>152.9092351450194</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>290.1388331607131</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>469.6361695153178</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679822</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367426</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>936.4948513640412</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660184</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V3" t="n">
-        <v>702.9677847364624</v>
+        <v>959.231792566018</v>
       </c>
       <c r="W3" t="n">
-        <v>460.7375340884779</v>
+        <v>959.231792566018</v>
       </c>
       <c r="X3" t="n">
-        <v>252.8860338829451</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.12573511799116</v>
+        <v>959.231792566018</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>633.0404992718665</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="C4" t="n">
-        <v>464.1043163439596</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="D4" t="n">
-        <v>313.9876769316238</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="E4" t="n">
-        <v>166.0745833492307</v>
+        <v>459.1931029795211</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132037</v>
+        <v>312.3031554816107</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132037</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132037</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>60.34504070228357</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>245.1780356031018</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>450.4476363223396</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>656.2710011584438</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>830.3658965470427</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456586</v>
+        <v>955.8134731456582</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660184</v>
+        <v>733.602595878383</v>
       </c>
       <c r="U4" t="n">
-        <v>814.6889641021062</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="V4" t="n">
-        <v>814.6889641021062</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="W4" t="n">
-        <v>814.6889641021062</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="X4" t="n">
-        <v>814.6889641021062</v>
+        <v>607.1061965619142</v>
       </c>
       <c r="Y4" t="n">
-        <v>814.6889641021062</v>
+        <v>607.1061965619142</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>729.5040026409656</v>
+        <v>574.7165680526459</v>
       </c>
       <c r="C5" t="n">
-        <v>436.2812638385966</v>
+        <v>281.4938292502756</v>
       </c>
       <c r="D5" t="n">
-        <v>436.2812638385966</v>
+        <v>43.03965385861449</v>
       </c>
       <c r="E5" t="n">
-        <v>436.2812638385966</v>
+        <v>43.03965385861449</v>
       </c>
       <c r="F5" t="n">
-        <v>429.3357630893931</v>
+        <v>36.09415310941101</v>
       </c>
       <c r="G5" t="n">
-        <v>136.1130242870241</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="H5" t="n">
-        <v>136.1130242870241</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951902</v>
+        <v>59.13673382951976</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444941</v>
+        <v>163.7002683444955</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084617</v>
+        <v>330.3223409084635</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162834</v>
+        <v>547.390938716286</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537005</v>
+        <v>772.585741753704</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416865</v>
+        <v>971.8955472416905</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171407</v>
+        <v>1107.500854171412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657381</v>
+        <v>867.9393068550162</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657381</v>
+        <v>867.9393068550162</v>
       </c>
       <c r="X5" t="n">
-        <v>1022.726741443335</v>
+        <v>574.7165680526459</v>
       </c>
       <c r="Y5" t="n">
-        <v>729.5040026409656</v>
+        <v>574.7165680526459</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295.7969449124153</v>
+        <v>342.182801435089</v>
       </c>
       <c r="C6" t="n">
-        <v>260.574325903867</v>
+        <v>167.729772153962</v>
       </c>
       <c r="D6" t="n">
-        <v>260.574325903867</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="E6" t="n">
-        <v>260.574325903867</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="F6" t="n">
-        <v>260.574325903867</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="G6" t="n">
-        <v>123.2273456438288</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7952243050889</v>
+        <v>25.79522430508926</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838832</v>
+        <v>108.3459783063292</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894942</v>
+        <v>265.6681956119407</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478059</v>
+        <v>468.6126709702531</v>
       </c>
       <c r="N6" t="n">
-        <v>818.722661904466</v>
+        <v>691.3371276269138</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792096</v>
+        <v>872.8666975145444</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313222</v>
+        <v>1126.612649313227</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="V6" t="n">
-        <v>926.0099374256388</v>
+        <v>926.0099374256438</v>
       </c>
       <c r="W6" t="n">
-        <v>671.7725806974372</v>
+        <v>926.0099374256438</v>
       </c>
       <c r="X6" t="n">
-        <v>671.7725806974372</v>
+        <v>718.158437220111</v>
       </c>
       <c r="Y6" t="n">
-        <v>464.0122819324833</v>
+        <v>510.398138455157</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.3573374179415</v>
+        <v>354.5542963376379</v>
       </c>
       <c r="C7" t="n">
-        <v>480.4211544900346</v>
+        <v>185.618113409731</v>
       </c>
       <c r="D7" t="n">
-        <v>330.3045150776989</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="E7" t="n">
-        <v>182.3914214953057</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739529</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314763</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279144</v>
+        <v>133.2846894279148</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993035</v>
+        <v>329.6518852993041</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276982</v>
+        <v>547.0826837276992</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730489</v>
+        <v>764.7780801730503</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967849</v>
+        <v>949.8387182967866</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195906</v>
+        <v>1084.669382195908</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899862</v>
+        <v>984.9848912094251</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.584064899862</v>
+        <v>984.9848912094251</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.798381391711</v>
+        <v>756.9953403114077</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0058022481812</v>
+        <v>536.2027611678776</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1237.219941498974</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.219941498974</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="D8" t="n">
-        <v>878.9542428922239</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="E8" t="n">
-        <v>493.1659902939796</v>
+        <v>935.4781228213758</v>
       </c>
       <c r="F8" t="n">
-        <v>82.18008550437207</v>
+        <v>524.4922180317683</v>
       </c>
       <c r="G8" t="n">
-        <v>70.51573926906501</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735866</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.359273474786</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>1237.219941498974</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4892,16 +4892,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.38035112061</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>2193.450786296771</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2440.633520129068</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4962,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>636.6680198981029</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>467.731836970196</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>818.3164847283426</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560535</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718124</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,58 +5889,58 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1828.279732885522</v>
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,10 +6320,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,52 +6451,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6709,40 +6709,40 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>73.01783107116299</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923487</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.25131710763584</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702477</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506821</v>
+        <v>54.74236624506793</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>128.6722568460148</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>128.6722568460161</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>249.387732507165</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>70.03064962107919</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.454437538930662</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X13" t="n">
-        <v>210.970912116861</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>61.35027805667416</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
-        <v>30.95754073885394</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210851</v>
+        <v>55881.32342210997</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.886627625</v>
+        <v>363279.8866276238</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353601</v>
+        <v>62744.31078353579</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440454</v>
+        <v>12992.59634440483</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666285</v>
+        <v>88656.33991666256</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431042</v>
+        <v>246054.6603431038</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302694</v>
+        <v>65162.40123302703</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-214991.3170960262</v>
       </c>
       <c r="C6" t="n">
-        <v>392365.2521262224</v>
+        <v>392365.2521262218</v>
       </c>
       <c r="D6" t="n">
-        <v>159294.884074174</v>
+        <v>159294.8840741752</v>
       </c>
       <c r="E6" t="n">
-        <v>124658.3898636145</v>
+        <v>124971.0311925361</v>
       </c>
       <c r="F6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="G6" t="n">
-        <v>632143.831488161</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="H6" t="n">
-        <v>632143.8314881611</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="I6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="J6" t="n">
-        <v>569399.5207046245</v>
+        <v>569712.1620335464</v>
       </c>
       <c r="K6" t="n">
-        <v>619151.2351437563</v>
+        <v>619463.8764726772</v>
       </c>
       <c r="L6" t="n">
-        <v>543487.4915714976</v>
+        <v>543800.1329004196</v>
       </c>
       <c r="M6" t="n">
-        <v>499536.5377592339</v>
+        <v>499849.1790881552</v>
       </c>
       <c r="N6" t="n">
-        <v>632143.8314881606</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="O6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="P6" t="n">
-        <v>632143.8314881606</v>
+        <v>632456.4728170821</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.932942157557</v>
+        <v>636.9329421575582</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143454</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>-3.2505288371554e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949241</v>
+        <v>43.45684181949355</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599821</v>
+        <v>297.1319499599811</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284079</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.148102746564408e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,19 +27038,19 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284101</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284079</v>
+        <v>50.48256327284213</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>173.8430007356186</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791784</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079613</v>
       </c>
       <c r="V2" t="n">
-        <v>142.5072622887334</v>
+        <v>87.94431032863039</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.429990514549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.8514953758633</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>94.72815764506963</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>45.4458084395867</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27517,16 +27517,16 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>17.69584188176904</v>
@@ -27590,10 +27590,10 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>143.1632544788239</v>
+        <v>161.0292193347929</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035666219</v>
+        <v>74.98238035666094</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>118.6134079829385</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>122.4516916599553</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705578829</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>232.6801495065628</v>
+        <v>79.44058926412242</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170823</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>137.838106169853</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>4.383599636232645</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370919</v>
+        <v>42.22754232370911</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790369</v>
+        <v>15.09724236790353</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
@@ -27833,13 +27833,13 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.6344613702931</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>183.3518287159678</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>244.0532781862319</v>
       </c>
       <c r="H8" t="n">
-        <v>281.9422893883541</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183087</v>
+        <v>54.72293255183041</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.029213235126359e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>-5.95836027024741e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30471,10 +30471,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834398</v>
+        <v>2.560534440834403</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219529</v>
+        <v>26.22307334219533</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026823</v>
+        <v>98.7150040302684</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977687</v>
+        <v>217.3221599977691</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782888</v>
+        <v>325.7095828782894</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719746</v>
+        <v>404.0715387719753</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341634</v>
+        <v>449.6074431341642</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141841</v>
+        <v>456.8825616141849</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681371</v>
+        <v>431.4212472681378</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600378</v>
+        <v>368.2080532600384</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976558</v>
+        <v>276.5089135976563</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690639</v>
+        <v>160.8431715690642</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051391</v>
+        <v>58.34817857051401</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475258</v>
+        <v>11.2087395147526</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667518</v>
+        <v>0.2048427552667522</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772859</v>
+        <v>1.370006705772861</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312208</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770588</v>
+        <v>47.16909052770597</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888296</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756111</v>
+        <v>221.2260389756115</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916025</v>
+        <v>297.465710391603</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758685</v>
+        <v>347.1284534758692</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264243</v>
+        <v>356.3159107264249</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511415</v>
+        <v>325.959446351142</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892049</v>
+        <v>261.6111927892054</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316372</v>
+        <v>174.8801542316375</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473944</v>
+        <v>85.0605917847396</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959672</v>
+        <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479196</v>
+        <v>5.522088432479205</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663547</v>
+        <v>0.09013202011663562</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611988</v>
+        <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180477</v>
+        <v>10.21181012180479</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749507</v>
+        <v>34.54056020749513</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326754</v>
+        <v>81.20372936326768</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438291</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400769</v>
+        <v>170.7606776400771</v>
       </c>
       <c r="M7" t="n">
-        <v>180.04319215775</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645601</v>
+        <v>175.7621674645604</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846836</v>
+        <v>162.3448095846839</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321989</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579111</v>
+        <v>96.17687426579128</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297174</v>
+        <v>51.64377593297183</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157436</v>
+        <v>20.0164008215744</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705766</v>
+        <v>4.907516111705775</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156305</v>
+        <v>0.06264914185156316</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209182</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121639</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359099</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923452</v>
       </c>
       <c r="K3" t="n">
         <v>68.2907269326837</v>
@@ -34798,7 +34798,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395896</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>41.57616651612445</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
@@ -34874,7 +34874,7 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>66.2222745999691</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
         <v>3.452847899353372</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108241</v>
+        <v>36.27625547108281</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333083</v>
+        <v>105.6197318333089</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019874</v>
+        <v>168.3051238019881</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068906</v>
+        <v>219.2612099068914</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175932</v>
+        <v>227.469498017594</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464503</v>
+        <v>201.3230358464511</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047682</v>
+        <v>136.9750575047689</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320632</v>
+        <v>54.20322372320683</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162901</v>
+        <v>2.597963022163157</v>
       </c>
       <c r="K6" t="n">
-        <v>212.0568568472669</v>
+        <v>83.38460000125252</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117283</v>
+        <v>158.9113306117288</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538502</v>
+        <v>204.9944195538508</v>
       </c>
       <c r="N6" t="n">
-        <v>224.974198643091</v>
+        <v>224.9741986430916</v>
       </c>
       <c r="O6" t="n">
-        <v>183.363201906697</v>
+        <v>183.3632019066976</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748746</v>
+        <v>256.3090422208912</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561568</v>
+        <v>34.89838014561599</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179463</v>
+        <v>111.1731803179465</v>
       </c>
       <c r="L7" t="n">
-        <v>198.350702900393</v>
+        <v>198.3507029003933</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195906</v>
+        <v>219.627069119591</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437887</v>
+        <v>219.894339843789</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987233</v>
+        <v>186.9299374987235</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970924</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409673</v>
+        <v>10.0148310140969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>640.5848321000389</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>319.7101787446115</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.9351598697852</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378049</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525766</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
